--- a/aml_docs/Credit_Card_statement.xlsx
+++ b/aml_docs/Credit_Card_statement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/rahav185254_exlservice_com/Documents/GenAI/SAR/AML/docs_new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/rahav185254_exlservice_com/Documents/GenAI/SAR/AML/docs_new/20231025_aml_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{598B38E0-B7B3-4E70-B48E-676451019F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD6895A-EFEB-4DCF-819C-28558157068A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{598B38E0-B7B3-4E70-B48E-676451019F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179ADDDE-4D2C-4605-AC52-47617BC63EB9}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CAF55216-983F-4B1E-AE53-B5D7E09D814A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -44,7 +44,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Bank Name</t>
@@ -54,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>: ABC Bank</t>
     </r>
@@ -222,54 +222,10 @@
     <t>Gas Station</t>
   </si>
   <si>
-    <t>Jul 23, 2022</t>
-  </si>
-  <si>
-    <t>Aug 18, 2022</t>
-  </si>
-  <si>
-    <t>Gold Purchase</t>
-  </si>
-  <si>
-    <t>Jul 14, 2022</t>
-  </si>
-  <si>
     <t>Jun 30, 2022</t>
   </si>
   <si>
     <t>Jul 4, 2022</t>
-  </si>
-  <si>
-    <t>Jul 10, 2022</t>
-  </si>
-  <si>
-    <t>Jul 19, 2022</t>
-  </si>
-  <si>
-    <t>Airline Tickets</t>
-  </si>
-  <si>
-    <t>Jul 28, 2022</t>
-  </si>
-  <si>
-    <t>Aug 9, 2022</t>
-  </si>
-  <si>
-    <t>Aug 13, 2022</t>
-  </si>
-  <si>
-    <r>
-      <t>Date range:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 01/01/2022 – 08/31/2022</t>
-    </r>
   </si>
   <si>
     <r>
@@ -280,7 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Sarah Jones</t>
     </r>
@@ -294,13 +250,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Platinum BestBuy</t>
     </r>
-  </si>
-  <si>
-    <t>Aug 14, 2022</t>
   </si>
   <si>
     <t>Credit Card Transaction Statement-:</t>
@@ -324,23 +277,31 @@
     <t>Jun 29, 2022</t>
   </si>
   <si>
-    <t>Jul 3, 2022</t>
-  </si>
-  <si>
     <t>Jul 1, 2022</t>
   </si>
   <si>
     <t>Jul 5, 2022</t>
   </si>
   <si>
-    <t>Jul 6, 2022</t>
+    <r>
+      <t>Date range:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 01/01/2022 – 07/05/2022</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,7 +321,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,14 +329,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -409,6 +377,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +397,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,11 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6235E5C-9B14-4619-892E-51C59B147D2D}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
@@ -741,7 +711,7 @@
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,52 +720,52 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -812,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -830,7 +800,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -848,7 +818,7 @@
         <v>11750</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -862,11 +832,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13:E65" si="0">E12-C13+D13</f>
+        <f t="shared" ref="E13:E48" si="0">E12-C13+D13</f>
         <v>11630</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -884,7 +854,7 @@
         <v>11589</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -902,7 +872,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -920,7 +890,7 @@
         <v>11950</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -938,7 +908,7 @@
         <v>11860</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -956,7 +926,7 @@
         <v>11744</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -974,7 +944,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -992,7 +962,7 @@
         <v>11903</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +980,7 @@
         <v>11793</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +998,7 @@
         <v>11743</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1016,7 @@
         <v>11683</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1034,7 @@
         <v>11343</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1052,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1070,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1118,7 +1088,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1106,7 @@
         <v>11440</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -1154,7 +1124,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -1172,7 +1142,7 @@
         <v>11273</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1190,7 +1160,7 @@
         <v>11213</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1208,7 +1178,7 @@
         <v>10433</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -1226,7 +1196,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1214,7 @@
         <v>11910</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>42</v>
       </c>
@@ -1262,7 +1232,7 @@
         <v>11760</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1250,7 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>31</v>
       </c>
@@ -1298,7 +1268,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1286,7 @@
         <v>11870</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
@@ -1334,7 +1304,7 @@
         <v>11730</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
@@ -1352,7 +1322,7 @@
         <v>11680</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
@@ -1370,7 +1340,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>45</v>
       </c>
@@ -1388,7 +1358,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
@@ -1406,7 +1376,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
@@ -1424,7 +1394,7 @@
         <v>11870</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>52</v>
       </c>
@@ -1442,7 +1412,7 @@
         <v>11750</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
@@ -1460,25 +1430,25 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="11">
         <v>10000</v>
       </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
@@ -1496,310 +1466,94 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C49" s="5">
-        <v>10000</v>
+        <v>210</v>
       </c>
       <c r="D49" s="5">
         <v>0</v>
       </c>
       <c r="E49" s="4">
         <f>E48-C49+D49</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" ref="E50:E53" si="1">E49-C50+D50</f>
+        <v>11570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="5">
+        <v>80</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
+        <v>11490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1">
+        <v>70</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="1"/>
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="11">
         <v>10000</v>
       </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="1">
-        <v>220</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>11780</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>10220</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="1">
-        <v>70</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>11930</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>10070</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57">
-        <v>120</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" si="0"/>
-        <v>11880</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>5200</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>6680</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="1">
-        <v>90</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>6590</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>5410</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1">
-        <v>70</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" si="0"/>
-        <v>11930</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="1">
-        <v>60</v>
-      </c>
-      <c r="D62" s="5">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="0"/>
-        <v>11870</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>11770</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>300</v>
-      </c>
-      <c r="D64" s="5">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="0"/>
-        <v>11470</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5">
-        <v>530</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="0"/>
-        <v>12000</v>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="1"/>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>

--- a/aml_docs/Credit_Card_statement.xlsx
+++ b/aml_docs/Credit_Card_statement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/rahav185254_exlservice_com/Documents/GenAI/SAR/AML/docs_new/20231025_aml_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince183378\Downloads\aml docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{598B38E0-B7B3-4E70-B48E-676451019F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179ADDDE-4D2C-4605-AC52-47617BC63EB9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B62289-BBE7-481D-894A-300CE76D3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CAF55216-983F-4B1E-AE53-B5D7E09D814A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{CAF55216-983F-4B1E-AE53-B5D7E09D814A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -44,7 +44,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Bank Name</t>
@@ -54,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>: ABC Bank</t>
     </r>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Gold Purchase</t>
   </si>
   <si>
     <t>Jun 30, 2022</t>
@@ -236,7 +239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Sarah Jones</t>
     </r>
@@ -250,7 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Platinum BestBuy</t>
     </r>
@@ -277,10 +280,25 @@
     <t>Jun 29, 2022</t>
   </si>
   <si>
+    <t>Jul 3, 2022</t>
+  </si>
+  <si>
     <t>Jul 1, 2022</t>
   </si>
   <si>
     <t>Jul 5, 2022</t>
+  </si>
+  <si>
+    <t>Jul 6, 2022</t>
+  </si>
+  <si>
+    <t>Transfer to Trading Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mar 5, 2022</t>
+  </si>
+  <si>
+    <t>May 6,2022</t>
   </si>
   <si>
     <r>
@@ -291,9 +309,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 01/01/2022 – 07/05/2022</t>
+      <t xml:space="preserve"> 01/01/2022 – 07/06/2022</t>
     </r>
   </si>
 </sst>
@@ -301,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +339,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,21 +347,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -377,10 +388,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,22 +704,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6235E5C-9B14-4619-892E-51C59B147D2D}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,52 +728,52 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -800,761 +808,928 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="5">
+        <v>800</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4">
         <f>E11-C12+D12</f>
-        <v>11750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:E59" si="0">E12-C13+D13</f>
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>120</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:E48" si="0">E12-C13+D13</f>
-        <v>11630</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>10830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>41</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>11589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>10789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>411</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1211</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>50</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>11950</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>90</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>11860</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>116</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>11744</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <v>256</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>97</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>11903</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>110</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>11793</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>50</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>11743</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>11683</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>340</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>11343</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
         <v>657</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1">
+        <v>750</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C28" s="1">
         <v>150</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>11850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="1">
         <v>150</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C30" s="1">
         <v>260</v>
       </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>11440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>10690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C31" s="1">
         <v>87</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>11353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>10603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>80</v>
       </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>11273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>10523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C33" s="1">
         <v>60</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>11213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>10463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C34" s="1">
         <v>780</v>
       </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>10433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>9683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1567</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2317</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <v>90</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>11910</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C37" s="1">
         <v>150</v>
       </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>11760</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C38" s="1">
         <v>110</v>
       </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
         <v>11650</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
         <v>350</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C40" s="1">
         <v>130</v>
       </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
         <f t="shared" si="0"/>
         <v>11870</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C41" s="1">
         <v>140</v>
       </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
         <v>11730</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C42" s="1">
         <v>50</v>
       </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
         <f t="shared" si="0"/>
         <v>11680</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>120</v>
       </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
         <f t="shared" si="0"/>
         <v>11560</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="9">
+        <v>800</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>10760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>440</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1240</v>
+      </c>
+      <c r="E45" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C46" s="1">
         <v>70</v>
       </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
         <f t="shared" si="0"/>
         <v>11930</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C47" s="1">
         <v>60</v>
       </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
         <f t="shared" si="0"/>
         <v>11870</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>120</v>
       </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
         <f t="shared" si="0"/>
         <v>11750</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C46">
+      <c r="C49">
         <v>100</v>
       </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
         <f t="shared" si="0"/>
         <v>11650</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C50" s="5">
         <v>10000</v>
       </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
         <v>10350</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E51" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="5">
-        <v>210</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <f>E48-C49+D49</f>
-        <v>11790</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="1">
-        <v>220</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" ref="E50:E53" si="1">E49-C50+D50</f>
-        <v>11570</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="5">
-        <v>80</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="1"/>
-        <v>11490</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="1">
-        <v>70</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="1"/>
-        <v>11420</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="C54" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>9500</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="1"/>
-        <v>1420</v>
-      </c>
+      <c r="C58" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>10200</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="1"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6"/>
+      <c r="B66" s="1"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aml_docs/Credit_Card_statement.xlsx
+++ b/aml_docs/Credit_Card_statement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince183378\Downloads\aml docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince183378\Gen-AI\SAR-AML-V3\aml_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B62289-BBE7-481D-894A-300CE76D3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6156725-6602-4C27-83EB-D436FAE221E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{CAF55216-983F-4B1E-AE53-B5D7E09D814A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAF55216-983F-4B1E-AE53-B5D7E09D814A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +356,26 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -389,6 +402,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6235E5C-9B14-4619-892E-51C59B147D2D}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1493,10 +1508,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="5">
@@ -1529,10 +1544,10 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="5">
@@ -1565,10 +1580,10 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="1">
@@ -1583,10 +1598,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="5">
@@ -1619,10 +1634,10 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="1">
@@ -1637,10 +1652,10 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="5">

--- a/aml_docs/Credit_Card_statement.xlsx
+++ b/aml_docs/Credit_Card_statement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/prince183378_exlservice_com/Documents/Desktop/3months/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prince183378\Gen-AI\SAR-AML-V3\aml_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A6156725-6602-4C27-83EB-D436FAE221E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B0C6E0-E94D-4529-AF30-6E3121115746}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9FB486-5DF3-4938-9126-848D25E4F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAF55216-983F-4B1E-AE53-B5D7E09D814A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Apr 02,2022</t>
+  </si>
+  <si>
+    <t>Apr 06,2022</t>
+  </si>
+  <si>
+    <t>Jun 5, 2022</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6235E5C-9B14-4619-892E-51C59B147D2D}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -734,242 +740,242 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
+      <c r="A12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>150</v>
+        <v>750</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:E32" si="0">12000-C12</f>
-        <v>12000</v>
+        <f>E11-C12+D12</f>
+        <v>11100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>11870</v>
+        <f t="shared" ref="E13:E34" si="0">E12-C13+D13</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>11860</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>11950</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>120</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>50</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>11880</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9">
-        <v>800</v>
-      </c>
-      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="5">
         <v>0</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>11200</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1240</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="9">
+        <v>800</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>11930</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>11940</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>60</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>11880</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
+        <v>37</v>
+      </c>
+      <c r="C22" s="1">
+        <v>750</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>11120</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5">
-        <v>10000</v>
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
       </c>
       <c r="D24" s="5">
-        <v>10350</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>9</v>
@@ -982,12 +988,12 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>10000</v>
+        <v>11100</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
@@ -1005,125 +1011,147 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="1">
         <v>4500</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>7500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>9500</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>12000</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>9500</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>2200</v>
       </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C33" s="5">
         <v>8000</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6" t="s">
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
         <v>10200</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
@@ -1140,14 +1168,14 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="6"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
@@ -1160,37 +1188,37 @@
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6"/>
-      <c r="B61" s="1"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4"/>
-    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="63" spans="1:5">
       <c r="A63" s="6"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
       <c r="D63" s="5"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="8"/>
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="4"/>
@@ -1204,22 +1232,36 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="5"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="6"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
